--- a/SprintBackLog_BananaRama.xlsx
+++ b/SprintBackLog_BananaRama.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacqu\Desktop\HTL2\Syp\bananRama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{29D27687-BE51-490A-940F-DAE6644BB5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{007C5C6B-75DF-4824-AFF1-C2F776A27806}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D27687-BE51-490A-940F-DAE6644BB5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-945" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>Gefährdet</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Story Points</t>
   </si>
   <si>
-    <t>Dauer in T</t>
+    <t>Dauer</t>
   </si>
   <si>
     <t>Start</t>
@@ -74,79 +74,103 @@
     <t>AGILES PROJEKT</t>
   </si>
   <si>
+    <t>24T</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>11T</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>Beendet</t>
+  </si>
+  <si>
+    <t>5T</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>7T</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sprints </t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
     <t>Projektauftrag erstellen</t>
   </si>
   <si>
     <t>Management</t>
   </si>
   <si>
-    <t>Beendet</t>
+    <t>GitHub Repository erstellen</t>
+  </si>
+  <si>
+    <t>ReadMe-Datei</t>
+  </si>
+  <si>
+    <t>Umfeldanalyse-Datei erstellen und hochgeladen</t>
+  </si>
+  <si>
+    <t>Strukturplane erstellen und hochgeladen</t>
+  </si>
+  <si>
+    <t>ProduktBacklog erstellen und hochgeladen</t>
+  </si>
+  <si>
+    <t>SprintBacklog erstellen und hochgeladen</t>
   </si>
   <si>
     <t>Mellinger &amp; Haindrich</t>
   </si>
   <si>
-    <t>GitHub Repository erstellen</t>
-  </si>
-  <si>
-    <t>ReadMe-Datei</t>
-  </si>
-  <si>
-    <t>Umfeldanalyse-Datei erstellen und hochgeladen</t>
-  </si>
-  <si>
-    <t>Strukturplane erstellen und hochgeladen</t>
-  </si>
-  <si>
-    <t>ProduktBacklog erstellen und hochgeladen</t>
-  </si>
-  <si>
-    <t>SprintBacklog erstellen und hochgeladen</t>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>ERD erstellen</t>
+  </si>
+  <si>
+    <t>10T</t>
+  </si>
+  <si>
+    <t>PowerPoint erstellen</t>
+  </si>
+  <si>
+    <t>Datenbanktabelle erstellen</t>
   </si>
   <si>
     <t>in Bearbeitung</t>
   </si>
   <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>ERD erstellen</t>
-  </si>
-  <si>
     <t>offen</t>
   </si>
   <si>
     <t>CSV-Datei mit Testdaten</t>
-  </si>
-  <si>
-    <t>Haindrich</t>
-  </si>
-  <si>
-    <t>Datenbanktabelle erstellen</t>
-  </si>
-  <si>
-    <t>Zugriffe Backend/Frontend erstellen</t>
-  </si>
-  <si>
-    <t>Mellinger</t>
-  </si>
-  <si>
-    <t>Frontend erstellen</t>
-  </si>
-  <si>
-    <t>PowerPoint erstellen</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Backlog</t>
   </si>
 </sst>
 </file>
@@ -156,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -182,7 +206,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +240,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5FB3F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBDBDBD"/>
       </patternFill>
     </fill>
@@ -232,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -329,15 +358,30 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -361,7 +405,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -660,28 +704,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="23.42578125" customWidth="1"/>
     <col min="12" max="12" width="109.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="2"/>
@@ -733,19 +777,21 @@
       <c r="K2" s="2"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
       <c r="F3" s="8">
-        <v>44501</v>
+        <v>41792</v>
       </c>
       <c r="G3" s="8">
-        <v>44742</v>
+        <v>41823</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -753,16 +799,15 @@
       <c r="K3" s="3"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" outlineLevel="1">
+    <row r="4" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10">
-        <f>E5+E13</f>
-        <v>29</v>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="12">
         <v>41792</v>
@@ -776,22 +821,21 @@
       <c r="K4" s="10"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" outlineLevel="2">
+    <row r="5" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="16">
-        <f>SUM(E6:E12)</f>
-        <v>11</v>
+      <c r="E5" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="17">
-        <v>44501</v>
+        <v>41792</v>
       </c>
       <c r="G5" s="17">
-        <v>44681</v>
+        <v>41806</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -799,17 +843,17 @@
       <c r="K5" s="14"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:12" outlineLevel="3">
+    <row r="6" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="19" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>1</v>
       </c>
       <c r="F6" s="20">
         <v>44501</v>
@@ -825,19 +869,19 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" outlineLevel="3">
+    <row r="7" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>1</v>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="20">
         <v>44562</v>
@@ -853,19 +897,19 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" outlineLevel="4">
+    <row r="8" spans="1:12" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="21" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>1</v>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="20">
         <v>44562</v>
@@ -881,19 +925,19 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" outlineLevel="4">
+    <row r="9" spans="1:12" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="21" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>1</v>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="20">
         <v>44593</v>
@@ -909,19 +953,19 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" outlineLevel="4">
+    <row r="10" spans="1:12" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="21" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>2</v>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F10" s="20">
         <v>44607</v>
@@ -937,19 +981,19 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" outlineLevel="4">
+    <row r="11" spans="1:12" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="21" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>3</v>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F11" s="20">
         <v>44621</v>
@@ -965,19 +1009,19 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" outlineLevel="4">
+    <row r="12" spans="1:12" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>2</v>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="20">
         <v>44656</v>
@@ -987,48 +1031,49 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" outlineLevel="2">
+    <row r="13" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="24">
-        <f>SUM(E14:E19)</f>
-        <v>18</v>
+      <c r="E13" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="25">
         <v>44681</v>
       </c>
       <c r="G13" s="25">
-        <v>44711</v>
-      </c>
-      <c r="H13" s="24"/>
+        <v>44704</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:12" outlineLevel="3">
+    <row r="14" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="19" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>5</v>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F14" s="20">
         <v>44681</v>
@@ -1038,25 +1083,25 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J14" s="2">
         <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" outlineLevel="3">
+    <row r="15" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="19" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>1</v>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F15" s="20">
         <v>44696</v>
@@ -1066,25 +1111,25 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J15" s="2">
         <v>2</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" outlineLevel="3">
+    <row r="16" spans="1:12" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="19" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>5</v>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F16" s="20">
         <v>44696</v>
@@ -1094,171 +1139,166 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" outlineLevel="3">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="20">
         <v>44705</v>
       </c>
       <c r="G17" s="20">
-        <v>44708</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>44711</v>
+      </c>
       <c r="I17" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J17" s="2">
         <v>2</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" outlineLevel="3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <v>3</v>
-      </c>
-      <c r="F18" s="20">
-        <v>44708</v>
-      </c>
-      <c r="G18" s="20">
-        <v>44711</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="2">
-        <v>2</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="B19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="20">
-        <v>44705</v>
-      </c>
-      <c r="G19" s="20">
-        <v>44711</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="2">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" outlineLevel="2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30">
-        <v>44712</v>
-      </c>
-      <c r="G20" s="30">
-        <v>44742</v>
-      </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="31"/>
-    </row>
-    <row r="21" spans="1:12" outlineLevel="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="29">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="30">
+        <v>41814</v>
+      </c>
+      <c r="G18" s="30">
+        <v>41814</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="35">
+        <v>41815</v>
+      </c>
+      <c r="G19" s="35">
+        <v>41823</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="39">
+        <v>0</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" outlineLevel="3">
+    <row r="22" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="B23" s="19"/>
+    <row r="23" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" outlineLevel="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="1:12" outlineLevel="2">
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="37"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1269,62 +1309,6 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" outlineLevel="2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" outlineLevel="2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" outlineLevel="2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" outlineLevel="2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1337,7 +1321,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
@@ -1359,9 +1343,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C68C0FB70830544FB6F3A1A5E3CF6E3D" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="41fa8c95f88e3fd153c8e59095905a20">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb0dfdb2-984f-4396-874f-90a9aefcf3d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d71e86376be9429711827e158e7112b" ns2:_="">
-    <xsd:import namespace="bb0dfdb2-984f-4396-874f-90a9aefcf3d7"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C2B765165B3DBC4EABCCAF9BDF2E9402" ma:contentTypeVersion="6" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ff4c766c9ef51bc9b00dc70f3226a0aa">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bdd5ea72-ad56-4e4f-b53b-7d88124ef7a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e31698592f1fe758f408b607c172525" ns2:_="">
+    <xsd:import namespace="bdd5ea72-ad56-4e4f-b53b-7d88124ef7a1"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1370,6 +1360,10 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1377,7 +1371,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bb0dfdb2-984f-4396-874f-90a9aefcf3d7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bdd5ea72-ad56-4e4f-b53b-7d88124ef7a1" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1388,6 +1382,28 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1490,20 +1506,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14289486-1D57-4241-826E-BBBA2853BD4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14289486-1D57-4241-826E-BBBA2853BD4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6247EF35-AA0D-4B63-8359-35665E836C67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8BBBC0-4682-4AD7-8465-57429CDC6804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8BBBC0-4682-4AD7-8465-57429CDC6804}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{964D79EA-C4B4-48EA-8754-828B3E921FB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bdd5ea72-ad56-4e4f-b53b-7d88124ef7a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>